--- a/01-Requirement/1-Attandant Studnet and Report.xlsx
+++ b/01-Requirement/1-Attandant Studnet and Report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Copy\wamp\www\ume-system\01-Requirement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="15015" windowHeight="7650" firstSheet="1" activeTab="5"/>
+    <workbookView minimized="1" xWindow="120" yWindow="360" windowWidth="15015" windowHeight="7650" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Buddhism" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="Sub Total Sem" sheetId="2" r:id="rId8"/>
     <sheet name="Total Sem" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +386,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -559,7 +564,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -601,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +768,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -861,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -889,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -902,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -930,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +959,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -982,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +1001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1038,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1177,7 @@
     <author>champa</author>
   </authors>
   <commentList>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1214,7 +1219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1312,7 +1317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1326,7 +1331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1340,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3154,6 +3159,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3568,106 +3576,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>303810</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>42925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3227985" y="1573480"/>
-          <a:ext cx="5196940" cy="1284020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1100">
-              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>បញ្ជីសំរង់វត្តមានប្រចាំថ្ងៃ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1100" baseline="0">
-              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> ថ្នាក់ឆ្នាំមូលដ្ឋាន ជំនាន់ទី១២</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1100" baseline="0">
-              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>សិក្សាពេលៈ ច័ន្ទ-សុក្រ (ព្រឹក), បន្ទប់ៈ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1100" baseline="0">
-              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>ឆ្នាំសិក្សាៈ ២០១៣-២០១៤</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
-            <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3743,6 +3651,106 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189510</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>252475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5952135" y="2183080"/>
+          <a:ext cx="6235165" cy="1284020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1100">
+              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>បញ្ជីសំរង់វត្តមានប្រចាំថ្ងៃ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1100" baseline="0">
+              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> ថ្នាក់ឆ្នាំមូលដ្ឋាន ជំនាន់ទី១២</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1100" baseline="0">
+              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>សិក្សាពេលៈ ច័ន្ទ-សុក្រ (ព្រឹក), បន្ទប់ៈ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1100" baseline="0">
+              <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ឆ្នាំសិក្សាៈ ២០១៣-២០១៤</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:latin typeface="Kh Muol" pitchFamily="2" charset="0"/>
             <a:cs typeface="Kh Muol" pitchFamily="2" charset="0"/>
@@ -7022,7 +7030,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7057,7 +7065,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12446,17 +12454,17 @@
   <dimension ref="A16:AM103"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="O31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="topRight" activeCell="C12" sqref="C12"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
@@ -17851,7 +17859,7 @@
   </sheetPr>
   <dimension ref="A16:AM102"/>
   <sheetViews>
-    <sheetView topLeftCell="F82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="V81" sqref="V81"/>
     </sheetView>
   </sheetViews>
@@ -23282,8 +23290,8 @@
   </sheetPr>
   <dimension ref="A16:AQ110"/>
   <sheetViews>
-    <sheetView topLeftCell="D82" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88"/>
+    <sheetView topLeftCell="D58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29205,7 +29213,7 @@
   <dimension ref="A16:AS105"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A18" sqref="A18"/>
       <selection pane="topRight" activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
@@ -35173,8 +35181,8 @@
   </sheetPr>
   <dimension ref="A16:AM104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40545,7 +40553,7 @@
   </sheetPr>
   <dimension ref="A16:AM104"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -45733,7 +45741,7 @@
   </sheetPr>
   <dimension ref="A18:Y112"/>
   <sheetViews>
-    <sheetView topLeftCell="C74" workbookViewId="0">
+    <sheetView topLeftCell="C91" workbookViewId="0">
       <selection activeCell="R106" sqref="R106"/>
     </sheetView>
   </sheetViews>
@@ -53871,7 +53879,7 @@
   </sheetPr>
   <dimension ref="A18:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
